--- a/trunk/docs/W-9 Working Document/W-9.1 Team Members/W-9.1.5 Dio/Microsoft Project/Open tasks.xlsx
+++ b/trunk/docs/W-9 Working Document/W-9.1 Team Members/W-9.1.5 Dio/Microsoft Project/Open tasks.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
-    <sheet name="Open tasks @ 2011-05-18" sheetId="2" r:id="rId1"/>
+    <sheet name="Openning tasks - TO DO" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Open tasks @ 2011-05-18'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Openning tasks - TO DO'!$A$1:$F$20</definedName>
     <definedName name="VSTS_ValidationRange_1a4db882fc464b02afe6cafaaa186711" hidden="1">[1]VSTS_ValidationWS_1!$AN$1:$AN$3</definedName>
     <definedName name="VSTS_ValidationRange_4a4cb790d7ea47c7aab62ae4ca37b13a" hidden="1">[1]VSTS_ValidationWS_1!$AL$1:$AL$16</definedName>
     <definedName name="VSTS_ValidationRange_4ed7db98c0e742d5973ca2d11cedd26b" hidden="1">[1]VSTS_ValidationWS_1!$AM$1:$AM$4</definedName>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,8 +753,8 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>